--- a/.github/workflows/Sophie/graphes/performances/resultats_climats.xlsx
+++ b/.github/workflows/Sophie/graphes/performances/resultats_climats.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophie\Desktop\clechrysalide\Administration Sophie\FormationDataScientist\MeteoAustralie\Git\.github\workflows\Sophie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophie\Desktop\clechrysalide\Administration Sophie\FormationDataScientist\MeteoAustralie\Git\.github\workflows\Sophie\graphes\performances2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23150" windowHeight="9810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="36080" windowHeight="9810"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -73,13 +73,13 @@
     <t>Moyenne de AccuracyTest</t>
   </si>
   <si>
-    <t>Moyenne de RecallTest</t>
+    <t>Moyenne de F1Test</t>
   </si>
   <si>
     <t>Moyenne de PrecisionTest</t>
   </si>
   <si>
-    <t>Moyenne de F1Test</t>
+    <t>Moyenne de RecallTest</t>
   </si>
   <si>
     <t>Moyenne de AUC</t>
@@ -572,16 +572,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -627,20 +625,21 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <numFmt numFmtId="168" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -656,7 +655,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sophie" refreshedDate="45255.42829340278" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="13">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sophie" refreshedDate="45261.758649421296" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="13">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:M1048576" sheet="resultats_climats"/>
   </cacheSource>
@@ -676,7 +675,7 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Seuil" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.104688718914985" maxValue="0.5"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="8.6505867540836306E-2" maxValue="0.5"/>
     </cacheField>
     <cacheField name="Seuil5" numFmtId="0">
       <sharedItems containsBlank="1" count="3">
@@ -686,28 +685,28 @@
       </sharedItems>
     </cacheField>
     <cacheField name="pvalue05" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="5.6884745901207002E-175"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="8.1345987363969797E-161"/>
     </cacheField>
     <cacheField name="pvaluebest" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="8.1299455070576195E-161"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="4.9421954768536501E-165"/>
     </cacheField>
     <cacheField name="AccuracyTrain" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.80063993174061399" maxValue="0.94571057995182495"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.80065174270331496" maxValue="0.94682230869001205"/>
     </cacheField>
     <cacheField name="AccuracyTest" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.78126599556389698" maxValue="0.93367914042237798"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.79448432187381901" maxValue="0.93775472397184101"/>
     </cacheField>
     <cacheField name="RecallTest" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.44444444444444398" maxValue="0.87007874015747999"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.47430830039525601" maxValue="0.90909090909090895"/>
     </cacheField>
     <cacheField name="PrecisionTest" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.40909090909090901" maxValue="0.80123674911660703"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.38461538461538403" maxValue="0.77902240325865502"/>
     </cacheField>
     <cacheField name="F1Test" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.55487053020961696" maxValue="0.74461896451425202"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.54054054054054002" maxValue="0.733527696793002"/>
     </cacheField>
     <cacheField name="AUC" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.85746670427787197" maxValue="0.92748594256330896"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.86205643441888402" maxValue="0.93792721196823703"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -723,16 +722,16 @@
   <r>
     <x v="0"/>
     <m/>
-    <n v="0.19806140661239599"/>
+    <n v="0.188522383570671"/>
     <x v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="0.84094415721516902"/>
-    <n v="0.83921611087050596"/>
-    <n v="0.80487804878048697"/>
-    <n v="0.53904382470119505"/>
-    <n v="0.64566929133858197"/>
-    <n v="0.90402198275505696"/>
+    <n v="0.83580109899033606"/>
+    <n v="0.83434387180597602"/>
+    <n v="0.80773739742086703"/>
+    <n v="0.53410852713178203"/>
+    <n v="0.64302379841343904"/>
+    <n v="0.90610722409307598"/>
   </r>
   <r>
     <x v="0"/>
@@ -741,26 +740,26 @@
     <x v="1"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="0.89102130308854099"/>
-    <n v="0.89183629276743104"/>
-    <n v="0.53955978584176001"/>
-    <n v="0.80123674911660703"/>
-    <n v="0.644863135442587"/>
-    <n v="0.90402198275505696"/>
+    <n v="0.89148147145602596"/>
+    <n v="0.88674750974447802"/>
+    <n v="0.55099648300117199"/>
+    <n v="0.77049180327868805"/>
+    <n v="0.64251537935748404"/>
+    <n v="0.90610722409307598"/>
   </r>
   <r>
     <x v="1"/>
     <m/>
-    <n v="0.26950567960739102"/>
+    <n v="0.28655621409416199"/>
     <x v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="0.80063993174061399"/>
-    <n v="0.78126599556389698"/>
-    <n v="0.74003919007184804"/>
-    <n v="0.56172533465542795"/>
-    <n v="0.63866967305524203"/>
-    <n v="0.85746670427787197"/>
+    <n v="0.80622866894197898"/>
+    <n v="0.79901040778024202"/>
+    <n v="0.73542894564505501"/>
+    <n v="0.59198734844491296"/>
+    <n v="0.65595794392523299"/>
+    <n v="0.86205643441888402"/>
   </r>
   <r>
     <x v="1"/>
@@ -769,54 +768,54 @@
     <x v="1"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="0.83899317406143303"/>
-    <n v="0.83057498720354805"/>
-    <n v="0.49510124101894099"/>
-    <n v="0.77505112474437599"/>
-    <n v="0.60422479075328805"/>
-    <n v="0.85746670427787197"/>
+    <n v="0.83976109215017003"/>
+    <n v="0.832963658078826"/>
+    <n v="0.50098231827111905"/>
+    <n v="0.77902240325865502"/>
+    <n v="0.60980470306895096"/>
+    <n v="0.86205643441888402"/>
   </r>
   <r>
     <x v="2"/>
     <m/>
-    <n v="0.21148446202278101"/>
+    <n v="0.181348010897636"/>
     <x v="0"/>
-    <n v="5.6884745901207002E-175"/>
-    <n v="8.1299455070576195E-161"/>
-    <n v="0.83430435795851698"/>
-    <n v="0.81034482758620596"/>
-    <n v="0.87007874015747999"/>
-    <n v="0.56449553001277097"/>
-    <n v="0.68474051123160296"/>
-    <n v="0.91304812859930895"/>
+    <n v="8.1345987363969797E-161"/>
+    <n v="4.9421954768536501E-165"/>
+    <n v="0.81531111628990904"/>
+    <n v="0.813606710158434"/>
+    <n v="0.87475538160469601"/>
+    <n v="0.570881226053639"/>
+    <n v="0.69088098918083396"/>
+    <n v="0.91345924822109204"/>
   </r>
   <r>
     <x v="2"/>
     <m/>
     <n v="0.5"/>
     <x v="1"/>
-    <n v="5.6884745901207002E-175"/>
-    <n v="8.1299455070576195E-161"/>
-    <n v="0.88196224656257205"/>
-    <n v="0.86533084808946803"/>
-    <n v="0.63976377952755903"/>
-    <n v="0.75406032482598595"/>
-    <n v="0.69222577209797598"/>
-    <n v="0.91304812859930895"/>
+    <n v="8.1345987363969797E-161"/>
+    <n v="4.9421954768536501E-165"/>
+    <n v="0.88371009088790398"/>
+    <n v="0.85787511649580594"/>
+    <n v="0.598825831702544"/>
+    <n v="0.75369458128078803"/>
+    <n v="0.66739367502726199"/>
+    <n v="0.91345924822109204"/>
   </r>
   <r>
     <x v="3"/>
     <m/>
-    <n v="0.24512033164501101"/>
+    <n v="0.24066253006458199"/>
     <x v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="0.80461887220175599"/>
-    <n v="0.79845107669059301"/>
-    <n v="0.81235870384325504"/>
-    <n v="0.56856540084388096"/>
-    <n v="0.66894197952218404"/>
-    <n v="0.88185660941653299"/>
+    <n v="0.80065174270331496"/>
+    <n v="0.79448432187381901"/>
+    <n v="0.81283018867924495"/>
+    <n v="0.56181533646322301"/>
+    <n v="0.66440468846391099"/>
+    <n v="0.88539844169673398"/>
   </r>
   <r>
     <x v="3"/>
@@ -825,68 +824,68 @@
     <x v="1"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="0.85099650514782199"/>
-    <n v="0.83717415942576501"/>
-    <n v="0.54935945742275805"/>
-    <n v="0.734138972809667"/>
-    <n v="0.62844827586206797"/>
-    <n v="0.88185660941653299"/>
+    <n v="0.85024086143383304"/>
+    <n v="0.84132980732905105"/>
+    <n v="0.54641509433962199"/>
+    <n v="0.75181723779854603"/>
+    <n v="0.63286713286713203"/>
+    <n v="0.88539844169673398"/>
   </r>
   <r>
     <x v="4"/>
     <m/>
-    <n v="0.104688718914985"/>
+    <n v="8.6505867540836306E-2"/>
     <x v="0"/>
-    <n v="2.8527126932529001E-181"/>
-    <n v="7.2357734303993398E-169"/>
-    <n v="0.88261997405966197"/>
-    <n v="0.86624675805854001"/>
-    <n v="0.86206896551724099"/>
-    <n v="0.40909090909090901"/>
-    <n v="0.55487053020961696"/>
-    <n v="0.92748594256330896"/>
+    <n v="4.3934240574258598E-195"/>
+    <n v="1.8723964735373202E-167"/>
+    <n v="0.86279414489531203"/>
+    <n v="0.85513153019636901"/>
+    <n v="0.90909090909090895"/>
+    <n v="0.38461538461538403"/>
+    <n v="0.54054054054054002"/>
+    <n v="0.93792721196823703"/>
   </r>
   <r>
     <x v="4"/>
     <m/>
     <n v="0.5"/>
     <x v="1"/>
-    <n v="2.8527126932529001E-181"/>
-    <n v="7.2357734303993398E-169"/>
-    <n v="0.94571057995182495"/>
-    <n v="0.93367914042237798"/>
-    <n v="0.44444444444444398"/>
-    <n v="0.77333333333333298"/>
-    <n v="0.56447688564476795"/>
-    <n v="0.92748594256330896"/>
+    <n v="4.3934240574258598E-195"/>
+    <n v="1.8723964735373202E-167"/>
+    <n v="0.94682230869001205"/>
+    <n v="0.93775472397184101"/>
+    <n v="0.47430830039525601"/>
+    <n v="0.77419354838709598"/>
+    <n v="0.58823529411764697"/>
+    <n v="0.93792721196823703"/>
   </r>
   <r>
     <x v="5"/>
     <m/>
-    <n v="0.333944201469421"/>
+    <n v="0.29007256031036299"/>
     <x v="0"/>
-    <n v="5.3318297996093E-177"/>
-    <n v="4.4683670165097602E-183"/>
-    <n v="0.85012864493996498"/>
-    <n v="0.81174957118353297"/>
-    <n v="0.78720787207872001"/>
-    <n v="0.70640176600441495"/>
-    <n v="0.74461896451425202"/>
-    <n v="0.88906892360562795"/>
+    <n v="2.3194483955073698E-187"/>
+    <n v="4.9729970079744198E-179"/>
+    <n v="0.83512006861063404"/>
+    <n v="0.80403087478559099"/>
+    <n v="0.82981530343007903"/>
+    <n v="0.65726227795193304"/>
+    <n v="0.733527696793002"/>
+    <n v="0.89113412880146703"/>
   </r>
   <r>
     <x v="5"/>
     <m/>
     <n v="0.5"/>
     <x v="1"/>
-    <n v="5.3318297996093E-177"/>
-    <n v="4.4683670165097602E-183"/>
-    <n v="0.86234991423670604"/>
-    <n v="0.81775300171526499"/>
-    <n v="0.66297662976629701"/>
-    <n v="0.78115942028985497"/>
-    <n v="0.71723220226214202"/>
-    <n v="0.88906892360562795"/>
+    <n v="2.3194483955073698E-187"/>
+    <n v="4.9729970079744198E-179"/>
+    <n v="0.86224271012006803"/>
+    <n v="0.83104631217838698"/>
+    <n v="0.68337730870712399"/>
+    <n v="0.77083333333333304"/>
+    <n v="0.72447552447552399"/>
+    <n v="0.89113412880146703"/>
   </r>
   <r>
     <x v="6"/>
@@ -906,7 +905,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
@@ -926,8 +925,8 @@
     <pivotField axis="axisPage" showAll="0">
       <items count="4">
         <item x="0"/>
+        <item x="2"/>
         <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -990,7 +989,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="3" item="1" hier="-1"/>
+    <pageField fld="3" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="6">
     <dataField name="Moyenne de AccuracyTrain" fld="6" subtotal="average" baseField="0" baseItem="0"/>
@@ -1000,48 +999,21 @@
     <dataField name="Moyenne de F1Test" fld="10" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Moyenne de AUC" fld="11" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="4">
+  <formats count="5">
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
     <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="6">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="0">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="5" selected="0">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-          </reference>
-          <reference field="0" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <conditionalFormats count="6">
@@ -1432,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1449,200 +1421,199 @@
     <col min="7" max="7" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>0</v>
       </c>
       <c r="B4" s="4">
-        <v>0.83899317406143303</v>
+        <v>0.83976109215017003</v>
       </c>
       <c r="C4" s="4">
-        <v>0.83057498720354805</v>
+        <v>0.832963658078826</v>
       </c>
       <c r="D4" s="4">
-        <v>0.49510124101894099</v>
+        <v>0.50098231827111905</v>
       </c>
       <c r="E4" s="4">
-        <v>0.77505112474437599</v>
+        <v>0.77902240325865502</v>
       </c>
       <c r="F4" s="4">
-        <v>0.60422479075328805</v>
+        <v>0.60980470306895096</v>
       </c>
       <c r="G4" s="4">
-        <v>0.85746670427787197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+        <v>0.86205643441888402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>0.88196224656257205</v>
+        <v>0.88371009088790398</v>
       </c>
       <c r="C5" s="4">
-        <v>0.86533084808946803</v>
+        <v>0.85787511649580594</v>
       </c>
       <c r="D5" s="4">
-        <v>0.63976377952755903</v>
+        <v>0.598825831702544</v>
       </c>
       <c r="E5" s="4">
-        <v>0.75406032482598595</v>
+        <v>0.75369458128078803</v>
       </c>
       <c r="F5" s="4">
-        <v>0.69222577209797598</v>
+        <v>0.66739367502726199</v>
       </c>
       <c r="G5" s="4">
-        <v>0.91304812859930895</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+        <v>0.91345924822109204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <v>0.94571057995182495</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.93367914042237798</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.77333333333333298</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.56447688564476795</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.92748594256330896</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+        <v>0.94682230869001205</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.93775472397184101</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.47430830039525601</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.77419354838709598</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.93792721196823703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="4">
-        <v>0.85099650514782199</v>
+        <v>0.85024086143383304</v>
       </c>
       <c r="C7" s="4">
-        <v>0.83717415942576501</v>
+        <v>0.84132980732905105</v>
       </c>
       <c r="D7" s="4">
-        <v>0.54935945742275805</v>
+        <v>0.54641509433962199</v>
       </c>
       <c r="E7" s="4">
-        <v>0.734138972809667</v>
+        <v>0.75181723779854603</v>
       </c>
       <c r="F7" s="4">
-        <v>0.62844827586206797</v>
+        <v>0.63286713286713203</v>
       </c>
       <c r="G7" s="4">
-        <v>0.88185660941653299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+        <v>0.88539844169673398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="4">
-        <v>0.89102130308854099</v>
+        <v>0.89148147145602596</v>
       </c>
       <c r="C8" s="4">
-        <v>0.89183629276743104</v>
+        <v>0.88674750974447802</v>
       </c>
       <c r="D8" s="4">
-        <v>0.53955978584176001</v>
+        <v>0.55099648300117199</v>
       </c>
       <c r="E8" s="4">
-        <v>0.80123674911660703</v>
+        <v>0.77049180327868805</v>
       </c>
       <c r="F8" s="4">
-        <v>0.644863135442587</v>
+        <v>0.64251537935748404</v>
       </c>
       <c r="G8" s="4">
-        <v>0.90402198275505696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+        <v>0.90610722409307598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="4">
-        <v>0.86234991423670604</v>
+        <v>0.86224271012006803</v>
       </c>
       <c r="C9" s="4">
-        <v>0.81775300171526499</v>
+        <v>0.83104631217838698</v>
       </c>
       <c r="D9" s="4">
-        <v>0.66297662976629701</v>
+        <v>0.68337730870712399</v>
       </c>
       <c r="E9" s="4">
-        <v>0.78115942028985497</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="F9" s="4">
-        <v>0.71723220226214202</v>
+        <v>0.72447552447552399</v>
       </c>
       <c r="G9" s="4">
-        <v>0.88906892360562795</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+        <v>0.89113412880146703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>0.87850562050814984</v>
+        <v>0.87904308912300211</v>
       </c>
       <c r="C10" s="4">
-        <v>0.86272473827064255</v>
+        <v>0.86461952129973152</v>
       </c>
       <c r="D10" s="4">
-        <v>0.55520088967029324</v>
+        <v>0.55915088940280622</v>
       </c>
       <c r="E10" s="4">
-        <v>0.76982998751997078</v>
+        <v>0.76667548455618439</v>
       </c>
       <c r="F10" s="4">
-        <v>0.64191184367713816</v>
+        <v>0.64421528481899992</v>
       </c>
       <c r="G10" s="4">
-        <v>0.89549138186961807</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.8993471148665817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -1650,7 +1621,7 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -1658,7 +1629,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -1666,7 +1637,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -1674,7 +1645,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -1682,7 +1653,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -1828,7 +1799,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1837,21 +1807,10 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
@@ -1899,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>0.19806140661239599</v>
+        <v>0.188522383570671</v>
       </c>
       <c r="E2" t="b">
         <f>+D2=0.5</f>
@@ -1912,22 +1871,22 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.84094415721516902</v>
+        <v>0.83580109899033606</v>
       </c>
       <c r="I2">
-        <v>0.83921611087050596</v>
+        <v>0.83434387180597602</v>
       </c>
       <c r="J2">
-        <v>0.80487804878048697</v>
+        <v>0.80773739742086703</v>
       </c>
       <c r="K2">
-        <v>0.53904382470119505</v>
+        <v>0.53410852713178203</v>
       </c>
       <c r="L2">
-        <v>0.64566929133858197</v>
+        <v>0.64302379841343904</v>
       </c>
       <c r="M2">
-        <v>0.90402198275505696</v>
+        <v>0.90610722409307598</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -1951,22 +1910,22 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.89102130308854099</v>
+        <v>0.89148147145602596</v>
       </c>
       <c r="I3">
-        <v>0.89183629276743104</v>
+        <v>0.88674750974447802</v>
       </c>
       <c r="J3">
-        <v>0.53955978584176001</v>
+        <v>0.55099648300117199</v>
       </c>
       <c r="K3">
-        <v>0.80123674911660703</v>
+        <v>0.77049180327868805</v>
       </c>
       <c r="L3">
-        <v>0.644863135442587</v>
+        <v>0.64251537935748404</v>
       </c>
       <c r="M3">
-        <v>0.90402198275505696</v>
+        <v>0.90610722409307598</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -1977,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.26950567960739102</v>
+        <v>0.28655621409416199</v>
       </c>
       <c r="E4" t="b">
         <f t="shared" si="0"/>
@@ -1990,22 +1949,22 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.80063993174061399</v>
+        <v>0.80622866894197898</v>
       </c>
       <c r="I4">
-        <v>0.78126599556389698</v>
+        <v>0.79901040778024202</v>
       </c>
       <c r="J4">
-        <v>0.74003919007184804</v>
+        <v>0.73542894564505501</v>
       </c>
       <c r="K4">
-        <v>0.56172533465542795</v>
+        <v>0.59198734844491296</v>
       </c>
       <c r="L4">
-        <v>0.63866967305524203</v>
+        <v>0.65595794392523299</v>
       </c>
       <c r="M4">
-        <v>0.85746670427787197</v>
+        <v>0.86205643441888402</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -2029,22 +1988,22 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.83899317406143303</v>
+        <v>0.83976109215017003</v>
       </c>
       <c r="I5">
-        <v>0.83057498720354805</v>
+        <v>0.832963658078826</v>
       </c>
       <c r="J5">
-        <v>0.49510124101894099</v>
+        <v>0.50098231827111905</v>
       </c>
       <c r="K5">
-        <v>0.77505112474437599</v>
+        <v>0.77902240325865502</v>
       </c>
       <c r="L5">
-        <v>0.60422479075328805</v>
+        <v>0.60980470306895096</v>
       </c>
       <c r="M5">
-        <v>0.85746670427787197</v>
+        <v>0.86205643441888402</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -2055,35 +2014,35 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.21148446202278101</v>
+        <v>0.181348010897636</v>
       </c>
       <c r="E6" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <v>5.6884745901207002E-175</v>
-      </c>
-      <c r="G6" s="1">
-        <v>8.1299455070576195E-161</v>
+      <c r="F6" s="3">
+        <v>8.1345987363969797E-161</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.9421954768536501E-165</v>
       </c>
       <c r="H6">
-        <v>0.83430435795851698</v>
+        <v>0.81531111628990904</v>
       </c>
       <c r="I6">
-        <v>0.81034482758620596</v>
+        <v>0.813606710158434</v>
       </c>
       <c r="J6">
-        <v>0.87007874015747999</v>
+        <v>0.87475538160469601</v>
       </c>
       <c r="K6">
-        <v>0.56449553001277097</v>
+        <v>0.570881226053639</v>
       </c>
       <c r="L6">
-        <v>0.68474051123160296</v>
+        <v>0.69088098918083396</v>
       </c>
       <c r="M6">
-        <v>0.91304812859930895</v>
+        <v>0.91345924822109204</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -2100,29 +2059,29 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F7" s="1">
-        <v>5.6884745901207002E-175</v>
-      </c>
-      <c r="G7" s="1">
-        <v>8.1299455070576195E-161</v>
+      <c r="F7" s="3">
+        <v>8.1345987363969797E-161</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4.9421954768536501E-165</v>
       </c>
       <c r="H7">
-        <v>0.88196224656257205</v>
+        <v>0.88371009088790398</v>
       </c>
       <c r="I7">
-        <v>0.86533084808946803</v>
+        <v>0.85787511649580594</v>
       </c>
       <c r="J7">
-        <v>0.63976377952755903</v>
+        <v>0.598825831702544</v>
       </c>
       <c r="K7">
-        <v>0.75406032482598595</v>
+        <v>0.75369458128078803</v>
       </c>
       <c r="L7">
-        <v>0.69222577209797598</v>
+        <v>0.66739367502726199</v>
       </c>
       <c r="M7">
-        <v>0.91304812859930895</v>
+        <v>0.91345924822109204</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -2133,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>0.24512033164501101</v>
+        <v>0.24066253006458199</v>
       </c>
       <c r="E8" t="b">
         <f t="shared" si="0"/>
@@ -2146,22 +2105,22 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.80461887220175599</v>
+        <v>0.80065174270331496</v>
       </c>
       <c r="I8">
-        <v>0.79845107669059301</v>
+        <v>0.79448432187381901</v>
       </c>
       <c r="J8">
-        <v>0.81235870384325504</v>
+        <v>0.81283018867924495</v>
       </c>
       <c r="K8">
-        <v>0.56856540084388096</v>
+        <v>0.56181533646322301</v>
       </c>
       <c r="L8">
-        <v>0.66894197952218404</v>
+        <v>0.66440468846391099</v>
       </c>
       <c r="M8">
-        <v>0.88185660941653299</v>
+        <v>0.88539844169673398</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -2185,22 +2144,22 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.85099650514782199</v>
+        <v>0.85024086143383304</v>
       </c>
       <c r="I9">
-        <v>0.83717415942576501</v>
+        <v>0.84132980732905105</v>
       </c>
       <c r="J9">
-        <v>0.54935945742275805</v>
+        <v>0.54641509433962199</v>
       </c>
       <c r="K9">
-        <v>0.734138972809667</v>
+        <v>0.75181723779854603</v>
       </c>
       <c r="L9">
-        <v>0.62844827586206797</v>
+        <v>0.63286713286713203</v>
       </c>
       <c r="M9">
-        <v>0.88185660941653299</v>
+        <v>0.88539844169673398</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -2211,35 +2170,35 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>0.104688718914985</v>
+        <v>8.6505867540836306E-2</v>
       </c>
       <c r="E10" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="1">
-        <v>2.8527126932529001E-181</v>
-      </c>
-      <c r="G10" s="1">
-        <v>7.2357734303993398E-169</v>
+      <c r="F10" s="3">
+        <v>4.3934240574258598E-195</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.8723964735373202E-167</v>
       </c>
       <c r="H10">
-        <v>0.88261997405966197</v>
+        <v>0.86279414489531203</v>
       </c>
       <c r="I10">
-        <v>0.86624675805854001</v>
+        <v>0.85513153019636901</v>
       </c>
       <c r="J10">
-        <v>0.86206896551724099</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="K10">
-        <v>0.40909090909090901</v>
+        <v>0.38461538461538403</v>
       </c>
       <c r="L10">
-        <v>0.55487053020961696</v>
+        <v>0.54054054054054002</v>
       </c>
       <c r="M10">
-        <v>0.92748594256330896</v>
+        <v>0.93792721196823703</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -2256,29 +2215,29 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F11" s="1">
-        <v>2.8527126932529001E-181</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7.2357734303993398E-169</v>
+      <c r="F11" s="3">
+        <v>4.3934240574258598E-195</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.8723964735373202E-167</v>
       </c>
       <c r="H11">
-        <v>0.94571057995182495</v>
+        <v>0.94682230869001205</v>
       </c>
       <c r="I11">
-        <v>0.93367914042237798</v>
+        <v>0.93775472397184101</v>
       </c>
       <c r="J11">
-        <v>0.44444444444444398</v>
+        <v>0.47430830039525601</v>
       </c>
       <c r="K11">
-        <v>0.77333333333333298</v>
+        <v>0.77419354838709598</v>
       </c>
       <c r="L11">
-        <v>0.56447688564476795</v>
+        <v>0.58823529411764697</v>
       </c>
       <c r="M11">
-        <v>0.92748594256330896</v>
+        <v>0.93792721196823703</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -2289,35 +2248,35 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>0.333944201469421</v>
+        <v>0.29007256031036299</v>
       </c>
       <c r="E12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="1">
-        <v>5.3318297996093E-177</v>
-      </c>
-      <c r="G12" s="1">
-        <v>4.4683670165097602E-183</v>
+      <c r="F12" s="3">
+        <v>2.3194483955073698E-187</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4.9729970079744198E-179</v>
       </c>
       <c r="H12">
-        <v>0.85012864493996498</v>
+        <v>0.83512006861063404</v>
       </c>
       <c r="I12">
-        <v>0.81174957118353297</v>
+        <v>0.80403087478559099</v>
       </c>
       <c r="J12">
-        <v>0.78720787207872001</v>
+        <v>0.82981530343007903</v>
       </c>
       <c r="K12">
-        <v>0.70640176600441495</v>
+        <v>0.65726227795193304</v>
       </c>
       <c r="L12">
-        <v>0.74461896451425202</v>
+        <v>0.733527696793002</v>
       </c>
       <c r="M12">
-        <v>0.88906892360562795</v>
+        <v>0.89113412880146703</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -2334,29 +2293,29 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F13" s="1">
-        <v>5.3318297996093E-177</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4.4683670165097602E-183</v>
+      <c r="F13" s="3">
+        <v>2.3194483955073698E-187</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4.9729970079744198E-179</v>
       </c>
       <c r="H13">
-        <v>0.86234991423670604</v>
+        <v>0.86224271012006803</v>
       </c>
       <c r="I13">
-        <v>0.81775300171526499</v>
+        <v>0.83104631217838698</v>
       </c>
       <c r="J13">
-        <v>0.66297662976629701</v>
+        <v>0.68337730870712399</v>
       </c>
       <c r="K13">
-        <v>0.78115942028985497</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="L13">
-        <v>0.71723220226214202</v>
+        <v>0.72447552447552399</v>
       </c>
       <c r="M13">
-        <v>0.88906892360562795</v>
+        <v>0.89113412880146703</v>
       </c>
     </row>
   </sheetData>
